--- a/biology/Botanique/Flore_synanthrope/Flore_synanthrope.xlsx
+++ b/biology/Botanique/Flore_synanthrope/Flore_synanthrope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la liste de la flore synanthrope. Pour plus d’explications, voir l'article Anthropophilie.
 </t>
@@ -511,26 +523,28 @@
           <t>Plantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Absinthe[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Absinthe
 Ambroisie à feuilles d'armoise
-Armoise citronnelle[1]
-Barbarée commune[1]
-Capselle bourse à pasteur[1]
+Armoise citronnelle
+Barbarée commune
+Capselle bourse à pasteur
 Canne de Provence
 Carotte sauvage
-Chardon crépu[1]
+Chardon crépu
 Cymbalaire des murs
-Euphorbe âcre[1]
-Galéopside intermédiaire[1]
+Euphorbe âcre
+Galéopside intermédiaire
 Géranium Herbe à Robert
 Grand plantain
 Inule visqueuse
 Laiteron maraîcher
 Lampsane commune
 Lierre grimpant
-Linaire commune[1]
+Linaire commune
 Liseron des champs
 Morelle noire
 Mélilot blanc
@@ -540,10 +554,10 @@
 Renouée des oiseaux
 Renouée persicaire
 Séneçon commun
-Tanaisie commune[1]
+Tanaisie commune
 Taraxacum (pissenlits)
 Trèfle blanc
-Trèfle de montagne[1]
+Trèfle de montagne
 Trèfle des prés
 Vergerette du Canada
 Verveine officinale</t>
@@ -574,7 +588,9 @@
           <t>Mycètes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acremonium
 Alternaria
